--- a/SmartSSO/Content/Template/原料模板.xlsx
+++ b/SmartSSO/Content/Template/原料模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>材质</t>
   </si>
@@ -85,6 +85,18 @@
   <si>
     <t>EP70</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -491,7 +503,7 @@
     <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +519,11 @@
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -524,8 +539,11 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,8 +559,11 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -559,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -576,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E6" s="6"/>
     </row>
   </sheetData>

--- a/SmartSSO/Content/Template/原料模板.xlsx
+++ b/SmartSSO/Content/Template/原料模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -41,10 +41,6 @@
     <t>EPDM</t>
   </si>
   <si>
-    <t>特殊件折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -514,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
@@ -537,10 +537,10 @@
         <v>1.2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
@@ -557,10 +557,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
@@ -577,7 +577,7 @@
         <v>1.2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
@@ -594,7 +594,7 @@
         <v>1.3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">

--- a/SmartSSO/Content/Template/原料模板.xlsx
+++ b/SmartSSO/Content/Template/原料模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>材质</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,113 +496,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>70</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>90</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>70</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
